--- a/TablesEtc.xlsx
+++ b/TablesEtc.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srout\Dropbox\educational\Silicon\Journal-preprint\2023-texrxiv-RISCV-Brief-History\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D115E97E-808F-4DC1-A585-9A802FDEA88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,71 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>SPARC V8</t>
+  </si>
+  <si>
+    <t>OpenRISC</t>
+  </si>
+  <si>
+    <t>RISC-V</t>
+  </si>
+  <si>
+    <t>Base+Ext</t>
+  </si>
+  <si>
+    <t>Compact</t>
+  </si>
+  <si>
+    <t>Quad FP</t>
+  </si>
+  <si>
+    <t>32-bit</t>
+  </si>
+  <si>
+    <t>64-bit</t>
+  </si>
+  <si>
+    <t>128-bit</t>
+  </si>
+  <si>
+    <t>GCC</t>
+  </si>
+  <si>
+    <t>LLVM</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>QEMU</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Gill Sans MT"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,12 +107,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +160,2849 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="135871" cy="205634"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A9684B-728C-1C34-790A-D357D908772F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2095500" y="1295400"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>√</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A9684B-728C-1C34-790A-D357D908772F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2095500" y="1295400"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="135871" cy="205634"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E16E4947-9CB0-D73E-33C1-4AE989A10D1E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2438400" y="1295400"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>√</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E16E4947-9CB0-D73E-33C1-4AE989A10D1E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2438400" y="1295400"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="135871" cy="205634"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{128FF6BE-DBD1-AA3A-6EA9-A1171F6E4952}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3406140" y="1295400"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>√</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{128FF6BE-DBD1-AA3A-6EA9-A1171F6E4952}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3406140" y="1295400"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="135871" cy="205634"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37804A68-FD55-8077-D943-877405DF698B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3741420" y="1295400"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>√</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37804A68-FD55-8077-D943-877405DF698B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3741420" y="1295400"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="135871" cy="205634"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C17B7D6-2EAA-82DF-FA7D-F97DA7ACF240}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4084320" y="1295400"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>√</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C17B7D6-2EAA-82DF-FA7D-F97DA7ACF240}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4084320" y="1295400"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="135871" cy="205634"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFB41458-0672-A78D-5C57-D42A585A3474}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4381500" y="1295400"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>√</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFB41458-0672-A78D-5C57-D42A585A3474}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4381500" y="1295400"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="135871" cy="205634"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A52594B-9D3A-3442-5670-665F3AF78C95}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3406140" y="1531620"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>√</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A52594B-9D3A-3442-5670-665F3AF78C95}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3406140" y="1531620"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="135871" cy="205634"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{125F7A59-E0A9-7F25-C78D-7345B88494CC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3741420" y="1531620"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>√</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{125F7A59-E0A9-7F25-C78D-7345B88494CC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3741420" y="1531620"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="135871" cy="205634"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A23A935-22D3-776E-BA35-A2848F4D3916}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4084320" y="1531620"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>√</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A23A935-22D3-776E-BA35-A2848F4D3916}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4084320" y="1531620"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="135871" cy="205634"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74F76D5-06AC-183B-5B69-F06F96CDF5D3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4381500" y="1531620"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>√</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74F76D5-06AC-183B-5B69-F06F96CDF5D3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4381500" y="1531620"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="135871" cy="205634"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29538E69-EDD1-EA51-D04D-6881119BE190}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3406140" y="1752600"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>√</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29538E69-EDD1-EA51-D04D-6881119BE190}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3406140" y="1752600"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="135871" cy="205634"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DFBF85F-B4D5-46C2-E06F-EB05785A1461}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3741420" y="1752600"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>√</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DFBF85F-B4D5-46C2-E06F-EB05785A1461}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3741420" y="1752600"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="135871" cy="205634"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="TextBox 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF55D26F-480E-D6F4-7213-D8A3C789ADE8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4084320" y="1752600"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>√</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="TextBox 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF55D26F-480E-D6F4-7213-D8A3C789ADE8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4084320" y="1752600"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="135871" cy="205634"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="TextBox 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35BD24AD-2AB9-5BF6-C2F1-79D8BF04FEA0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4381500" y="1752600"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>√</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="TextBox 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35BD24AD-2AB9-5BF6-C2F1-79D8BF04FEA0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4381500" y="1752600"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="135871" cy="205634"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="TextBox 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC10055-F1DD-7238-EA6C-9A12FEB8F658}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2133600" y="1752600"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>√</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="TextBox 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC10055-F1DD-7238-EA6C-9A12FEB8F658}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2133600" y="1752600"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="135871" cy="205634"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="TextBox 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BA4E3C4-9143-E679-171F-BACA6C43471E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2468880" y="1752600"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>√</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="TextBox 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BA4E3C4-9143-E679-171F-BACA6C43471E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2468880" y="1752600"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="135871" cy="205634"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="TextBox 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB77E0A3-7812-086C-CB2F-7A4FE3576838}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2811780" y="1752600"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>√</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="TextBox 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB77E0A3-7812-086C-CB2F-7A4FE3576838}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2811780" y="1752600"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="135871" cy="205634"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="TextBox 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0262F7F7-032F-D924-5791-16A06AE4FCFE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3108960" y="1752600"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>√</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="TextBox 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0262F7F7-032F-D924-5791-16A06AE4FCFE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3108960" y="1752600"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="135871" cy="205634"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="TextBox 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B10038A3-05B2-31CB-C1A6-062310C5CE83}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1485900" y="1752600"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>√</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="TextBox 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B10038A3-05B2-31CB-C1A6-062310C5CE83}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1485900" y="1752600"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="135871" cy="205634"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="TextBox 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBBA1384-30EA-A16A-D289-0BA0D060F742}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1821180" y="1752600"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>√</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="TextBox 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBBA1384-30EA-A16A-D289-0BA0D060F742}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1821180" y="1752600"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="135871" cy="205634"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="TextBox 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDFAC974-DF2D-388A-C2C3-CEBC6DE57AEE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2438400" y="1539240"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>√</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="TextBox 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDFAC974-DF2D-388A-C2C3-CEBC6DE57AEE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2438400" y="1539240"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="135871" cy="205634"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="TextBox 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCE4A872-9C50-BA14-BFD7-BAC572D3F1FF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2811780" y="1524000"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>√</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="TextBox 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCE4A872-9C50-BA14-BFD7-BAC572D3F1FF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2811780" y="1524000"/>
+              <a:ext cx="135871" cy="205634"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +3267,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:L7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="12" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" ht="18" x14ac:dyDescent="0.5">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="2:12" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:L3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>